--- a/02_raw/inequality/data/US_GINI.xlsx
+++ b/02_raw/inequality/data/US_GINI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kuznets-Curve\Kuznets-Curve\02_raw\inequality\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68F1EA0B-D8BA-421C-8D2E-051AA264215B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27DA759A-8B1B-42AF-B31F-E98F091C95B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,60 +21,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
-  <si>
-    <t>Gini index measures the extent to which the distribution of income (or, in some cases, consumption expenditure) among individuals or households within an economy deviates from a perfectly equal distribution. A Lorenz curve plots the cumulative percentages of total income received against the cumulative number of recipients, starting with the poorest individual or household. The Gini index measures the area between the Lorenz curve and a hypothetical line of absolute equality, expressed as a percentage of the maximum area under the line. Thus a Gini index of 0 represents perfect equality, while an index of 100 implies perfect inequality.</t>
-  </si>
-  <si>
-    <t>Statistical concept and methodology</t>
-  </si>
-  <si>
-    <t>Series Code</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+  <si>
+    <t>Development relevance</t>
+  </si>
+  <si>
+    <t>2013 [YR2013]</t>
+  </si>
+  <si>
+    <t>2004 [YR2004]</t>
+  </si>
+  <si>
+    <t>https://datacatalog.worldbank.org/public-licenses#cc-by</t>
+  </si>
+  <si>
+    <t>1992 [YR1992]</t>
+  </si>
+  <si>
+    <t>Last Updated: 09/16/2022</t>
+  </si>
+  <si>
+    <t>2012 [YR2012]</t>
+  </si>
+  <si>
+    <t>Country Code</t>
+  </si>
+  <si>
+    <t>2018 [YR2018]</t>
+  </si>
+  <si>
+    <t>Data from database: World Development Indicators</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>2003 [YR2003]</t>
+  </si>
+  <si>
+    <t>The World Bank Group's goal of promoting shared prosperity has been defined as fostering income growth of the bottom 40 per cent of the welfare distribution in every country. Gini coefficients are important background information for shared prosperity.</t>
+  </si>
+  <si>
+    <t>1997 [YR1997]</t>
   </si>
   <si>
     <t>World Bank, Poverty and Inequality Platform. Data are based on primary household survey data obtained from government statistical agencies and World Bank country departments. Data for high-income economies are mostly from the Luxembourg Income Study database. For more information and methodology, please see http://pip.worldbank.org.</t>
   </si>
   <si>
-    <t>1990 [YR1990]</t>
-  </si>
-  <si>
-    <t>Related source links</t>
-  </si>
-  <si>
-    <t>2015 [YR2015]</t>
-  </si>
-  <si>
-    <t>General comments</t>
-  </si>
-  <si>
-    <t>2019 [YR2019]</t>
-  </si>
-  <si>
-    <t>License URL</t>
-  </si>
-  <si>
-    <t>World Bank, Poverty and Inequality Platform: https://pip.worldbank.org/</t>
-  </si>
-  <si>
-    <t>License Type</t>
-  </si>
-  <si>
-    <t>CC BY-4.0</t>
-  </si>
-  <si>
-    <t>2014 [YR2014]</t>
-  </si>
-  <si>
-    <t>Gini index</t>
-  </si>
-  <si>
-    <t>Long definition</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>%</t>
+    <t>..</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>The Gini index measures the area between the Lorenz curve and a hypothetical line of absolute equality, expressed as a percentage of the maximum area under the line. A Lorenz curve plots the cumulative percentages of total income received against the cumulative number of recipients, starting with the poorest individual. Thus a Gini index of 0 represents perfect equality, while an index of 100 implies perfect inequality.
+The Gini index provides a convenient summary measure of the degree of inequality. Data on the distribution of income or consumption come from nationally representative household surveys. Where the original data from the household survey were available, they have been used to calculate the income or consumption shares by quintile. Otherwise, shares have been estimated from the best available grouped data.
+The distribution data have been adjusted for household size, providing a more consistent measure of per capita income or consumption. 
+The year reflects the year in which the underlying household survey data were collected or, when the data collection period bridged two calendar years, the year data collection started.</t>
+  </si>
+  <si>
+    <t>2017 [YR2017]</t>
+  </si>
+  <si>
+    <t>Poverty: Income distribution</t>
   </si>
   <si>
     <t>Gini coefficients are not unique. It is possible for two different Lorenz curves to give rise to the same Gini coefficient. Furthermore it is possible for the Gini coefficient of a developing country to rise (due to increasing inequality of income) while the number of people in absolute poverty decreases. This is because the Gini coefficient measures relative, not absolute, wealth.
@@ -83,103 +92,154 @@
 World Bank staff have made an effort to ensure that the data are as comparable as possible. Wherever possible, consumption has been used rather than income. Income distribution and Gini indexes for high-income economies are calculated directly from the Luxembourg Income Study database, using an estimation method consistent with that applied for developing countries.</t>
   </si>
   <si>
-    <t>2013 [YR2013]</t>
-  </si>
-  <si>
-    <t>..</t>
-  </si>
-  <si>
-    <t>https://datacatalog.worldbank.org/public-licenses#cc-by</t>
-  </si>
-  <si>
-    <t>Development relevance</t>
-  </si>
-  <si>
-    <t>Poverty: Income distribution</t>
-  </si>
-  <si>
-    <t>2012 [YR2012]</t>
-  </si>
-  <si>
     <t>Country Name</t>
   </si>
   <si>
+    <t>2008 [YR2008]</t>
+  </si>
+  <si>
+    <t>The World Bank’s internationally comparable poverty monitoring database now draws on income or detailed consumption data from more than 2000 household surveys across 169 countries. See the Poverty and Inequality Platform (PIP) for details (www.pip.worldbank.org).</t>
+  </si>
+  <si>
+    <t>1996 [YR1996]</t>
+  </si>
+  <si>
+    <t>World Bank, Poverty and Inequality Platform: https://pip.worldbank.org/</t>
+  </si>
+  <si>
+    <t>2016 [YR2016]</t>
+  </si>
+  <si>
+    <t>2007 [YR2007]</t>
+  </si>
+  <si>
+    <t>1995 [YR1995]</t>
+  </si>
+  <si>
+    <t>Limitations and exceptions</t>
+  </si>
+  <si>
+    <t>Related source links</t>
+  </si>
+  <si>
+    <t>License Type</t>
+  </si>
+  <si>
+    <t>2021 [YR2021]</t>
+  </si>
+  <si>
+    <t>2006 [YR2006]</t>
+  </si>
+  <si>
+    <t>CC BY-4.0</t>
+  </si>
+  <si>
+    <t>The Gini index measures the extent to which the distribution of income or consumption among individuals or households within an economy deviates from a perfectly equal distribution. A Gini index of 0 represents perfect equality, while an index of 100 implies perfect inequality.</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>General comments</t>
+  </si>
+  <si>
+    <t>1991 [YR1991]</t>
+  </si>
+  <si>
+    <t>2020 [YR2020]</t>
+  </si>
+  <si>
+    <t>Long definition</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Periodicity</t>
+  </si>
+  <si>
+    <t>2011 [YR2011]</t>
+  </si>
+  <si>
+    <t>1999 [YR1999]</t>
+  </si>
+  <si>
     <t>USA</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Last Updated: 09/16/2022</t>
-  </si>
-  <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>The World Bank Group's goal of promoting shared prosperity has been defined as fostering income growth of the bottom 40 per cent of the welfare distribution in every country. Gini coefficients are important background information for shared prosperity.</t>
-  </si>
-  <si>
-    <t>The World Bank’s internationally comparable poverty monitoring database now draws on income or detailed consumption data from more than 2000 household surveys across 169 countries. See the Poverty and Inequality Platform (PIP) for details (www.pip.worldbank.org).</t>
+    <t>2002 [YR2002]</t>
+  </si>
+  <si>
+    <t>1990 [YR1990]</t>
+  </si>
+  <si>
+    <t>2019 [YR2019]</t>
+  </si>
+  <si>
+    <t>Series Code</t>
+  </si>
+  <si>
+    <t>2010 [YR2010]</t>
+  </si>
+  <si>
+    <t>1998 [YR1998]</t>
+  </si>
+  <si>
+    <t>Short definition</t>
+  </si>
+  <si>
+    <t>2001 [YR2001]</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Statistical concept and methodology</t>
+  </si>
+  <si>
+    <t>2009 [YR2009]</t>
+  </si>
+  <si>
+    <t>SI.POV.GINI</t>
+  </si>
+  <si>
+    <t>2015 [YR2015]</t>
+  </si>
+  <si>
+    <t>License URL</t>
+  </si>
+  <si>
+    <t>2000 [YR2000]</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Series Name</t>
+  </si>
+  <si>
+    <t>1994 [YR1994]</t>
+  </si>
+  <si>
+    <t>Unit of measure</t>
+  </si>
+  <si>
+    <t>Gini index measures the extent to which the distribution of income (or, in some cases, consumption expenditure) among individuals or households within an economy deviates from a perfectly equal distribution. A Lorenz curve plots the cumulative percentages of total income received against the cumulative number of recipients, starting with the poorest individual or household. The Gini index measures the area between the Lorenz curve and a hypothetical line of absolute equality, expressed as a percentage of the maximum area under the line. Thus a Gini index of 0 represents perfect equality, while an index of 100 implies perfect inequality.</t>
   </si>
   <si>
     <t>Indicator Name</t>
   </si>
   <si>
-    <t>2018 [YR2018]</t>
-  </si>
-  <si>
-    <t>2017 [YR2017]</t>
-  </si>
-  <si>
-    <t>Country Code</t>
-  </si>
-  <si>
-    <t>The Gini index measures the extent to which the distribution of income or consumption among individuals or households within an economy deviates from a perfectly equal distribution. A Gini index of 0 represents perfect equality, while an index of 100 implies perfect inequality.</t>
-  </si>
-  <si>
-    <t>Limitations and exceptions</t>
-  </si>
-  <si>
-    <t>Unit of measure</t>
-  </si>
-  <si>
-    <t>Series Name</t>
-  </si>
-  <si>
-    <t>2016 [YR2016]</t>
-  </si>
-  <si>
-    <t>Short definition</t>
-  </si>
-  <si>
-    <t>Data from database: World Development Indicators</t>
-  </si>
-  <si>
-    <t>2000 [YR2000]</t>
-  </si>
-  <si>
-    <t>Annual</t>
-  </si>
-  <si>
-    <t>The Gini index measures the area between the Lorenz curve and a hypothetical line of absolute equality, expressed as a percentage of the maximum area under the line. A Lorenz curve plots the cumulative percentages of total income received against the cumulative number of recipients, starting with the poorest individual. Thus a Gini index of 0 represents perfect equality, while an index of 100 implies perfect inequality.
-The Gini index provides a convenient summary measure of the degree of inequality. Data on the distribution of income or consumption come from nationally representative household surveys. Where the original data from the household survey were available, they have been used to calculate the income or consumption shares by quintile. Otherwise, shares have been estimated from the best available grouped data.
-The distribution data have been adjusted for household size, providing a more consistent measure of per capita income or consumption. 
-The year reflects the year in which the underlying household survey data were collected or, when the data collection period bridged two calendar years, the year data collection started.</t>
-  </si>
-  <si>
-    <t>SI.POV.GINI</t>
-  </si>
-  <si>
-    <t>2021 [YR2021]</t>
-  </si>
-  <si>
-    <t>Periodicity</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>2020 [YR2020]</t>
+    <t>2014 [YR2014]</t>
+  </si>
+  <si>
+    <t>2005 [YR2005]</t>
+  </si>
+  <si>
+    <t>Gini index</t>
+  </si>
+  <si>
+    <t>1993 [YR1993]</t>
   </si>
 </sst>
 </file>
@@ -527,136 +587,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="AJ1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>38</v>
+      </c>
+      <c r="G2">
+        <v>38.4</v>
+      </c>
+      <c r="H2">
+        <v>40.4</v>
+      </c>
+      <c r="I2">
         <v>40</v>
       </c>
-      <c r="L1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" t="s">
-        <v>47</v>
+      <c r="J2">
+        <v>39.9</v>
+      </c>
+      <c r="K2">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="L2">
+        <v>40.5</v>
+      </c>
+      <c r="M2">
+        <v>40</v>
+      </c>
+      <c r="N2">
+        <v>40</v>
+      </c>
+      <c r="O2">
+        <v>40.1</v>
+      </c>
+      <c r="P2">
+        <v>40.6</v>
+      </c>
+      <c r="Q2">
+        <v>40.4</v>
+      </c>
+      <c r="R2">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="S2">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="T2">
+        <v>41</v>
+      </c>
+      <c r="U2">
+        <v>41.4</v>
+      </c>
+      <c r="V2">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="W2">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="X2">
+        <v>40.6</v>
+      </c>
+      <c r="Y2">
+        <v>40</v>
+      </c>
+      <c r="Z2">
+        <v>40.9</v>
+      </c>
+      <c r="AA2">
+        <v>40.9</v>
+      </c>
+      <c r="AB2">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="AC2">
+        <v>41.5</v>
+      </c>
+      <c r="AD2">
+        <v>41.2</v>
+      </c>
+      <c r="AE2">
+        <v>41.1</v>
+      </c>
+      <c r="AF2">
+        <v>41.2</v>
+      </c>
+      <c r="AG2">
+        <v>41.4</v>
+      </c>
+      <c r="AH2">
+        <v>41.5</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>40.1</v>
-      </c>
-      <c r="G2">
-        <v>40.9</v>
-      </c>
-      <c r="H2">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="I2">
-        <v>41.5</v>
-      </c>
-      <c r="J2">
-        <v>41.2</v>
-      </c>
-      <c r="K2">
-        <v>41.1</v>
-      </c>
-      <c r="L2">
-        <v>41.2</v>
-      </c>
-      <c r="M2">
-        <v>41.4</v>
-      </c>
-      <c r="N2">
-        <v>41.5</v>
-      </c>
-      <c r="O2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -680,96 +858,96 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
       <c r="N1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="O1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
         <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
